--- a/config_12.08/activity_year_config.xlsx
+++ b/config_12.08/activity_year_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>id|行号</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>"act_038_s12dhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_038_s12lhsjb","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,20 +920,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="4" bestFit="1" customWidth="1"/>
@@ -2080,6 +2092,59 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="20">
+        <v>1</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="21">
+        <v>44173.333333333336</v>
+      </c>
+      <c r="S21" s="18">
+        <v>1607385600</v>
+      </c>
+      <c r="T21" s="21">
+        <v>44179.999988425923</v>
+      </c>
+      <c r="U21" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/activity_year_config.xlsx
+++ b/config_12.08/activity_year_config.xlsx
@@ -920,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2145,6 +2145,10 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
